--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxGeneralAndLargeTaxcodeWeekly201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxGeneralAndLargeTaxcodeWeekly201819.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\2018-19 Test Plan for TAX,NI,Socttish Tax\201819 Payroll Tax Module Input excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" activeTab="3"/>
+    <workbookView activeTab="3" windowHeight="4335" windowWidth="14340" xWindow="390" yWindow="210"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralTaxRateWeekly" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForWeeklyTax" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="GeneralTaxRateWeekly" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForWeeklyTax" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="63">
   <si>
     <t>TC</t>
   </si>
@@ -217,6 +217,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -303,60 +304,60 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="4" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="4" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -373,10 +374,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -411,7 +412,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -463,7 +464,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -568,7 +569,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -577,13 +578,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -593,7 +594,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -602,7 +603,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -611,7 +612,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -621,12 +622,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -657,7 +658,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -676,7 +677,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -688,7 +689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -697,10 +698,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -717,7 +718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -731,7 +732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -774,13 +775,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
@@ -789,11 +790,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -822,7 +823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="9" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.6" r="2" s="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
@@ -842,7 +843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>42</v>
       </c>
@@ -862,7 +863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>43</v>
       </c>
@@ -882,7 +883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>44</v>
       </c>
@@ -902,7 +903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>45</v>
       </c>
@@ -922,7 +923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>46</v>
       </c>
@@ -942,7 +943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>47</v>
       </c>
@@ -962,7 +963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>48</v>
       </c>
@@ -982,7 +983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>49</v>
       </c>
@@ -1002,7 +1003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>50</v>
       </c>
@@ -1022,7 +1023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>51</v>
       </c>
@@ -1042,7 +1043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>52</v>
       </c>
@@ -1064,17 +1065,17 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C11" type="list">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -1083,15 +1084,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="58.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1135,7 +1136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>40</v>
       </c>
@@ -1170,7 +1171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="3" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
@@ -1205,7 +1206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="4" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>40</v>
       </c>
@@ -1240,7 +1241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="5" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>40</v>
       </c>
@@ -1275,7 +1276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="6" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>40</v>
       </c>
@@ -1310,7 +1311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="7" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
@@ -1345,7 +1346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="8" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
@@ -1380,7 +1381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="9" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>40</v>
       </c>
@@ -1415,7 +1416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="10" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>40</v>
       </c>
@@ -1450,7 +1451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="11" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1485,7 +1486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="12" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -1520,7 +1521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="13" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
@@ -1557,14 +1558,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2:A13" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2:A13"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
@@ -1573,17 +1574,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="51.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="49.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="51.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="49.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="28.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1630,7 +1631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>40</v>
       </c>
@@ -1670,8 +1671,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxGeneralAndLargeTaxcodeWeekly201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxGeneralAndLargeTaxcodeWeekly201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="63">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxGeneralAndLargeTaxcodeWeekly201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxGeneralAndLargeTaxcodeWeekly201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="63">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxGeneralAndLargeTaxcodeWeekly201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxGeneralAndLargeTaxcodeWeekly201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="63">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxGeneralAndLargeTaxcodeWeekly201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxGeneralAndLargeTaxcodeWeekly201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="63">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxGeneralAndLargeTaxcodeWeekly201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxGeneralAndLargeTaxcodeWeekly201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="63">
   <si>
     <t>TC</t>
   </si>
